--- a/b_User_creates/res/Namen.xlsx
+++ b/b_User_creates/res/Namen.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harald\PycharmProjects\SEW5\useranlegen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixS\PycharmProjects\Schule_5_p\b_User_creates\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A53E1EF-7DAC-41F8-8553-0BCC553AF47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD242F0-F08D-41E2-80F4-57B86885B8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="19380" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Aushang" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Excel_BuiltIn_Print_Area_1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_2">#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,14 +33,29 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="93">
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>4CN</t>
+  </si>
+  <si>
+    <t>5CN</t>
+  </si>
+  <si>
+    <t>1AO</t>
+  </si>
+  <si>
+    <t>KIT</t>
+  </si>
   <si>
     <t>firstname</t>
   </si>
@@ -50,6 +69,9 @@
     <t>class</t>
   </si>
   <si>
+    <t>Maximilian</t>
+  </si>
+  <si>
     <t>De Junious</t>
   </si>
   <si>
@@ -59,21 +81,30 @@
     <t>2CN</t>
   </si>
   <si>
+    <t>Ramón</t>
+  </si>
+  <si>
+    <t>Núñez Gómez</t>
+  </si>
+  <si>
     <t>3BN</t>
   </si>
   <si>
+    <t>Ülkü Ömer</t>
+  </si>
+  <si>
+    <t>Üllägöß</t>
+  </si>
+  <si>
+    <t>1AN</t>
+  </si>
+  <si>
     <t>Isis</t>
   </si>
   <si>
     <t>Lanpher</t>
   </si>
   <si>
-    <t>4CN</t>
-  </si>
-  <si>
-    <t>Maximilian</t>
-  </si>
-  <si>
     <t>Galvin</t>
   </si>
   <si>
@@ -134,9 +165,6 @@
     <t>Pallafor-Zedian</t>
   </si>
   <si>
-    <t>5CN</t>
-  </si>
-  <si>
     <t>Lon</t>
   </si>
   <si>
@@ -257,12 +285,30 @@
     <t>de Cardinalli-Sciola</t>
   </si>
   <si>
+    <t>IRÉNÉE</t>
+  </si>
+  <si>
+    <t>Gundry</t>
+  </si>
+  <si>
+    <t>Pinedo</t>
+  </si>
+  <si>
+    <t>CHEL'AH</t>
+  </si>
+  <si>
+    <t>Faivre</t>
+  </si>
+  <si>
     <t>Pinsky</t>
   </si>
   <si>
     <t>Goldie</t>
   </si>
   <si>
+    <t>A-nother</t>
+  </si>
+  <si>
     <t>Ανδρομέδη</t>
   </si>
   <si>
@@ -273,46 +319,40 @@
   </si>
   <si>
     <t>Preato</t>
-  </si>
-  <si>
-    <t>IRÉNÉE</t>
-  </si>
-  <si>
-    <t>Gundry</t>
-  </si>
-  <si>
-    <t>Pinedo</t>
-  </si>
-  <si>
-    <t>CHEL'AH</t>
-  </si>
-  <si>
-    <t>Faivre</t>
-  </si>
-  <si>
-    <t>Núñez Gómez</t>
-  </si>
-  <si>
-    <t>Ramón</t>
-  </si>
-  <si>
-    <t>Üllägöß</t>
-  </si>
-  <si>
-    <t>1AN</t>
-  </si>
-  <si>
-    <t>Ülkü Ömer</t>
-  </si>
-  <si>
-    <t>A-nother</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$€-C07]\ #,##0.00;[Red]\-[$€-C07]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;WAHR&quot;;&quot;WAHR&quot;;&quot;FALSCH&quot;"/>
+  </numFmts>
+  <fonts count="6">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -324,15 +364,51 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999CC"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE7F5"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF33FF"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9966"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -340,19 +416,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name=".0" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name=".1" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name=".2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name=".3" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name=".error" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Ergebnis 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE7F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9999CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF33FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999CC"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCFE7F5"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF9966"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CC66"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -661,573 +888,615 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AME41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="93" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="1025" width="11.5703125"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1019" s="1" customFormat="1" ht="17.399999999999999">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1"/>
+      <c r="ALP1"/>
+      <c r="ALQ1"/>
+      <c r="ALR1"/>
+      <c r="ALS1"/>
+      <c r="ALT1"/>
+      <c r="ALU1"/>
+      <c r="ALV1"/>
+      <c r="ALW1"/>
+      <c r="ALX1"/>
+      <c r="ALY1"/>
+      <c r="ALZ1"/>
+      <c r="AMA1"/>
+      <c r="AMB1"/>
+      <c r="AMC1"/>
+      <c r="AMD1"/>
+      <c r="AME1"/>
+    </row>
+    <row r="2" spans="1:1019">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:1019">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1019">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1019">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="6" spans="1:1019">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1019">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1019">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1019">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1019">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1019">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1019">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1019">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1019">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="15" spans="1:1019">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:1019">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
         <v>71</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>77</v>
+      <c r="A40" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.600000000000001">
+      <c r="A41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CSeite &amp;P</oddFooter>
-  </headerFooter>
+  <conditionalFormatting sqref="B2:B41">
+    <cfRule type="expression" dxfId="3" priority="49">
+      <formula>MID(B2,1,1)="3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="50">
+      <formula>MID(B2,1,1)="2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="51">
+      <formula>MID(B2,1,1)="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="52">
+      <formula>MID(B2,1,1)="1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.47222222222222199" right="0.47222222222222199" top="0.78749999999999998" bottom="0.39374999999999999" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>